--- a/ta-lib.trange/sample.xlsx
+++ b/ta-lib.trange/sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="15">
   <si>
     <t>Mon</t>
   </si>
@@ -58,13 +58,17 @@
   <si>
     <t>I H - Cp I</t>
   </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -97,7 +101,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,12 +123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,9 +237,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -264,16 +262,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -294,11 +292,8 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -673,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J34" sqref="J5:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -755,9 +750,8 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="15">
-        <f>MAX(G5:I5)</f>
-        <v>0.91000000000000369</v>
+      <c r="J5" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="K5" s="12"/>
     </row>
@@ -1184,10 +1178,7 @@
         <f t="shared" si="3"/>
         <v>0.46000000000000085</v>
       </c>
-      <c r="K18" s="26">
-        <f>AVERAGE(J5:J18)</f>
-        <v>0.5542857142857146</v>
-      </c>
+      <c r="K18" s="12"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,8 +1214,8 @@
         <v>1.1000000000000014</v>
       </c>
       <c r="K19" s="12">
-        <f>(K18*13+J19)/14</f>
-        <v>0.59326530612244943</v>
+        <f>AVERAGE(J6:J19)</f>
+        <v>0.56785714285714306</v>
       </c>
       <c r="L19" s="5"/>
     </row>
@@ -1262,7 +1253,7 @@
       </c>
       <c r="K20" s="12">
         <f t="shared" ref="K20:K34" si="4">(K19*13+J20)/14</f>
-        <v>0.58517492711370278</v>
+        <v>0.56158163265306116</v>
       </c>
       <c r="L20" s="5"/>
     </row>
@@ -1300,7 +1291,7 @@
       </c>
       <c r="K21" s="12">
         <f t="shared" si="4"/>
-        <v>0.56837671803415268</v>
+        <v>0.54646865889212826</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -1338,7 +1329,7 @@
       </c>
       <c r="K22" s="12">
         <f t="shared" si="4"/>
-        <v>0.61492123817457034</v>
+        <v>0.59457804039983331</v>
       </c>
       <c r="L22" s="5"/>
     </row>
@@ -1376,7 +1367,7 @@
       </c>
       <c r="K23" s="12">
         <f t="shared" si="4"/>
-        <v>0.61742686401924429</v>
+        <v>0.59853675179984556</v>
       </c>
       <c r="L23" s="5"/>
     </row>
@@ -1414,7 +1405,7 @@
       </c>
       <c r="K24" s="12">
         <f t="shared" si="4"/>
-        <v>0.64189637373215547</v>
+        <v>0.6243555552427138</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,7 +1442,7 @@
       </c>
       <c r="K25" s="12">
         <f t="shared" si="4"/>
-        <v>0.67390377560842984</v>
+        <v>0.65761587272537692</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1479,7 @@
       </c>
       <c r="K26" s="12">
         <f t="shared" si="4"/>
-        <v>0.69219636306497045</v>
+        <v>0.67707188181642142</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,7 +1516,7 @@
       </c>
       <c r="K27" s="12">
         <f t="shared" si="4"/>
-        <v>0.7748966228460441</v>
+        <v>0.76085246168667708</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1562,7 +1553,7 @@
       </c>
       <c r="K28" s="12">
         <f t="shared" si="4"/>
-        <v>0.78097543549989801</v>
+        <v>0.76793442870905726</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,7 +1590,7 @@
       </c>
       <c r="K29" s="12">
         <f t="shared" si="4"/>
-        <v>1.2087629043927628</v>
+        <v>1.1966533980869818</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,7 +1627,7 @@
       </c>
       <c r="K30" s="12">
         <f t="shared" si="4"/>
-        <v>1.3024226969361368</v>
+        <v>1.2911781553664829</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1673,7 +1664,7 @@
       </c>
       <c r="K31" s="12">
         <f t="shared" si="4"/>
-        <v>1.3801067900121269</v>
+        <v>1.3696654299831628</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1710,7 +1701,7 @@
       </c>
       <c r="K32" s="12">
         <f t="shared" si="4"/>
-        <v>1.3665277335826891</v>
+        <v>1.3568321849843652</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,14 +1738,14 @@
       </c>
       <c r="K33" s="12">
         <f t="shared" si="4"/>
-        <v>1.3360614668982111</v>
+        <v>1.3270584574854818</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="19">
         <v>16</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <v>40311</v>
       </c>
       <c r="D34" s="20">
@@ -1766,7 +1757,7 @@
       <c r="F34" s="20">
         <v>47.85</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="27">
         <f t="shared" si="0"/>
         <v>1.0600000000000023</v>
       </c>
@@ -1784,7 +1775,7 @@
       </c>
       <c r="K34" s="22">
         <f t="shared" si="4"/>
-        <v>1.3163427906911962</v>
+        <v>1.3079828533793763</v>
       </c>
     </row>
   </sheetData>
